--- a/biology/Botanique/Pedaliaceae/Pedaliaceae.xlsx
+++ b/biology/Botanique/Pedaliaceae/Pedaliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Pedaliaceae (Pédaliacées) regroupe des plantes dicotylédones. L'espèce la plus connue est le Sésame (Sesamum indicum).
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Pedalium, dérivé du latin pes ; pedis ; pedali, pied, peut-être en référence aux fruits qui se dispersent en s’accrochant aux pattes des animaux.
-Alexandre de Théis y voit une origine grecque πηδαλιον / pedalion, « clou ; pointe », en référence au fruit « garni de quatre cornes ou pointes aiguës, à peu près comme celui du Trapa[note 1] »[1].
+Alexandre de Théis y voit une origine grecque πηδαλιον / pedalion, « clou ; pointe », en référence au fruit « garni de quatre cornes ou pointes aiguës, à peu près comme celui du Trapa[note 1] ».
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG (1998)[2] la circonscription de cette famille était incertaine et pouvait inclure les Martyniaceae.
-La classification phylogénétique APG II (2003)[3] et la classification phylogénétique APG III (2009)[4] ont depuis validé les Martyniaceae en tant que famille indépendante de Pedaliaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG (1998) la circonscription de cette famille était incertaine et pouvait inclure les Martyniaceae.
+La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) ont depuis validé les Martyniaceae en tant que famille indépendante de Pedaliaceae.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) :
 Ceratotheca
 Dicerocaryum
 Harpagophytum
@@ -591,7 +609,7 @@
 Sesamum
 Trapella
 Uncarina
-Selon NCBI  (12 nov. 2015)[6] :
+Selon NCBI  (12 nov. 2015) :
 Ceratotheca
 Dicerocaryum
 Harpagophytum
@@ -605,7 +623,7 @@
 Sesamum
 Trapella
 Uncarina
-Selon DELTA Angio           (12 nov. 2015)[7] :
+Selon DELTA Angio           (12 nov. 2015) :
 Ceratotheca
 Dicerocaryum
 Harpagophytum
@@ -619,7 +637,7 @@
 Sesamothamnus
 Sesamum
 Uncarina
-Selon ITIS      (12 nov. 2015)[8] :
+Selon ITIS      (12 nov. 2015) :
 Ceratotheca Endl.
 Harpagophytum DC. ex Meisn.
 Sesamum L.</t>
@@ -650,9 +668,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (7 Jul 2010)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (7 Jul 2010) :
 genre Ceratotheca
 Ceratotheca triloba
 genre Harpagophytum
